--- a/ResultsTransformation/Map/Routes/route03.xlsx
+++ b/ResultsTransformation/Map/Routes/route03.xlsx
@@ -3444,22 +3444,22 @@
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
@@ -3561,37 +3561,37 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -3646,32 +3646,32 @@
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
@@ -3863,72 +3863,72 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -3973,42 +3973,42 @@
       </c>
       <c r="BT13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
@@ -4145,72 +4145,72 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -4255,42 +4255,42 @@
       </c>
       <c r="BT14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
@@ -4427,62 +4427,62 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
@@ -4527,47 +4527,47 @@
       </c>
       <c r="BS15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BT15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BU15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CA15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CB15" t="inlineStr">
@@ -4714,62 +4714,62 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
@@ -4824,47 +4824,47 @@
       </c>
       <c r="BS16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BT16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BU16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BZ16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CA16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="CB16" t="inlineStr">
@@ -5106,42 +5106,42 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
